--- a/biology/Médecine/Affaire_Naomi_Musenga/Affaire_Naomi_Musenga.xlsx
+++ b/biology/Médecine/Affaire_Naomi_Musenga/Affaire_Naomi_Musenga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’affaire Naomi Musenga concerne les circonstances du décès le 29 décembre 2017 de Naomi Musenga, qui résidait à Strasbourg (Bas-Rhin). Souffrant de violentes douleurs au ventre, elle compose le 15 afin de contacter le Samu[1]. Au téléphone, deux opératrices du Samu de Strasbourg ne prennent pas l'appel de la jeune femme au sérieux et la raillent tandis qu'elle agonise[2]. Elle meurt cinq heures après cet appel au CHU de Strasbourg, après avoir été finalement prise en charge par SOS médecins[3].
-À la suite d'une plainte déposée par la famille de Naomi Musenga, une information judiciaire est ouverte à l'été 2018 pour « non-assistance à personne en péril »[4].
+L’affaire Naomi Musenga concerne les circonstances du décès le 29 décembre 2017 de Naomi Musenga, qui résidait à Strasbourg (Bas-Rhin). Souffrant de violentes douleurs au ventre, elle compose le 15 afin de contacter le Samu. Au téléphone, deux opératrices du Samu de Strasbourg ne prennent pas l'appel de la jeune femme au sérieux et la raillent tandis qu'elle agonise. Elle meurt cinq heures après cet appel au CHU de Strasbourg, après avoir été finalement prise en charge par SOS médecins.
+À la suite d'une plainte déposée par la famille de Naomi Musenga, une information judiciaire est ouverte à l'été 2018 pour « non-assistance à personne en péril ».
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 29 décembre 2017, Naomi Musenga, une mère française de 22 ans, appelle Police Secours, qui la transfère au Centre d'appel des pompiers qui la transfère au Samu de Strasbourg ; elle se plaint de violentes douleurs au ventre[5].
-Au cours d'un dialogue qui dure environ une minute, l'opératrice (après des familiarités et des plaisanteries[6] — hors présence de la victime — avec sa collègue du 18[7]) et d'un ton sec, conseille à Naomi Musenga d'appeler SOS Médecins[5]. Lorsque celle-ci dit d'une voix faible qu'elle est en train de mourir, l'opératrice lui répond que tout le monde va mourir un jour[5].
-Emmenée à l'hôpital puis transférée en réanimation quelques heures plus tard, la jeune femme meurt par la suite d'une défaillance multiviscérale[8].
-L’enregistrement de l'appel téléphonique a été rendu public par le mensuel alsacien Heb'di le 27 avril 2018[9] puis par Rue89 Strasbourg[10].
-Yolande Renzi, procureur de Strasbourg, annonce le mercredi 11 juillet 2018, dans un communiqué, qu'elle procéderait dans les prochains jours à l'ouverture d'une information judiciaire du chef de non-assistance à personne en danger contre l'opératrice du centre des appels d'urgence et tous autres, ainsi que du chef d'homicide involontaire contre X[11]. Elle est finalement mise en examen pour non-assistance à personne en danger le 12 janvier 2024.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 décembre 2017, Naomi Musenga, une mère française de 22 ans, appelle Police Secours, qui la transfère au Centre d'appel des pompiers qui la transfère au Samu de Strasbourg ; elle se plaint de violentes douleurs au ventre.
+Au cours d'un dialogue qui dure environ une minute, l'opératrice (après des familiarités et des plaisanteries — hors présence de la victime — avec sa collègue du 18) et d'un ton sec, conseille à Naomi Musenga d'appeler SOS Médecins. Lorsque celle-ci dit d'une voix faible qu'elle est en train de mourir, l'opératrice lui répond que tout le monde va mourir un jour.
+Emmenée à l'hôpital puis transférée en réanimation quelques heures plus tard, la jeune femme meurt par la suite d'une défaillance multiviscérale.
+L’enregistrement de l'appel téléphonique a été rendu public par le mensuel alsacien Heb'di le 27 avril 2018 puis par Rue89 Strasbourg.
+Yolande Renzi, procureur de Strasbourg, annonce le mercredi 11 juillet 2018, dans un communiqué, qu'elle procéderait dans les prochains jours à l'ouverture d'une information judiciaire du chef de non-assistance à personne en danger contre l'opératrice du centre des appels d'urgence et tous autres, ainsi que du chef d'homicide involontaire contre X. Elle est finalement mise en examen pour non-assistance à personne en danger le 12 janvier 2024.
 </t>
         </is>
       </c>
@@ -548,12 +562,14 @@
           <t>Causes du décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2018, le procureur de Strasbourg annonce que Naomi Musenga serait morte d'une intoxication au paracétamol, absorbé pendant plusieurs jours par automédication[12]. Cette conclusion s'appuie sur un avis sur l'autopsie demandée par le procureur à un médecin des Hôpitaux universitaires de Strasbourg. Le conseil de l'ordre des médecins du Bas-Rhin signale l'existence d'un conflit d'intérêts dans cet avis[13].
-La thèse de l'intoxication au paracétamol, qui écarterait la responsabilité de l'hôpital, est contestée par la famille de Naomi Musenga et par certains médecins, comme le Professeur Christian Marescaux. Selon lui, l'intoxication au paracétamol est incompatible avec plusieurs des résultats de l'autopsie, qui indiqueraient plutôt un infarctus mésentérique[14].
-Le 20 mai 2019, la juge d'instruction nomme deux experts indépendants pour reprendre entièrement l'analyse médicale de l'affaire[13].
-Selon une dernière contre-expertise privée, remise en octobre 2021 par trois médecins lillois, « la mort de Naomi Musenga est liée à (…) un état de choc abdominal ». Rare chez une personne de son âge, l'accident vasculaire abdominal se serait manifesté par une thrombose suivie d'une hémorragie particulièrement douloureuse[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2018, le procureur de Strasbourg annonce que Naomi Musenga serait morte d'une intoxication au paracétamol, absorbé pendant plusieurs jours par automédication. Cette conclusion s'appuie sur un avis sur l'autopsie demandée par le procureur à un médecin des Hôpitaux universitaires de Strasbourg. Le conseil de l'ordre des médecins du Bas-Rhin signale l'existence d'un conflit d'intérêts dans cet avis.
+La thèse de l'intoxication au paracétamol, qui écarterait la responsabilité de l'hôpital, est contestée par la famille de Naomi Musenga et par certains médecins, comme le Professeur Christian Marescaux. Selon lui, l'intoxication au paracétamol est incompatible avec plusieurs des résultats de l'autopsie, qui indiqueraient plutôt un infarctus mésentérique.
+Le 20 mai 2019, la juge d'instruction nomme deux experts indépendants pour reprendre entièrement l'analyse médicale de l'affaire.
+Selon une dernière contre-expertise privée, remise en octobre 2021 par trois médecins lillois, « la mort de Naomi Musenga est liée à (…) un état de choc abdominal ». Rare chez une personne de son âge, l'accident vasculaire abdominal se serait manifesté par une thrombose suivie d'une hémorragie particulièrement douloureuse.
 </t>
         </is>
       </c>
@@ -584,13 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans la presse
-À la suite de l'Heb'di, plusieurs journaux d'envergure nationale se font l'écho de l'affaire : Le Parisien[16], LCI[17], Libération[18], France 3[8], 97Land[19], Le Figaro[20] entre autres. Pendant plusieurs jours, quasiment tous les médias en France, et des médias en Belgique évoquent cette affaire[21].
-Milieu médical
-L'hôpital suspend l'opératrice[5],[22],[23]. Le Dr François Braun, président de Samu Urgences France, déclare : « Ce n'est pas la réponse attendue à la réception d'un appel au Samu »[24].
-Répondant à l'hypothèse d'une surcharge de travail et de conditions de travail pénibles[25], l’hôpital précise que l'opératrice était à son deuxième jour après des vacances, n’effectuait pas de remplacement et que la charge de travail était celle de routine[26].
-Société
-L'existence du stéréotype appelé syndrome méditerranéen, consistant à moins bien considérer les plaintes émanant de personnes noires dans le milieu médical, est mise en lumière lors de cette affaire[27].
+          <t>Dans la presse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'Heb'di, plusieurs journaux d'envergure nationale se font l'écho de l'affaire : Le Parisien, LCI, Libération, France 3, 97Land, Le Figaro entre autres. Pendant plusieurs jours, quasiment tous les médias en France, et des médias en Belgique évoquent cette affaire.
 </t>
         </is>
       </c>
@@ -616,14 +632,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Réactions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Milieu médical</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital suspend l'opératrice. Le Dr François Braun, président de Samu Urgences France, déclare : « Ce n'est pas la réponse attendue à la réception d'un appel au Samu ».
+Répondant à l'hypothèse d'une surcharge de travail et de conditions de travail pénibles, l’hôpital précise que l'opératrice était à son deuxième jour après des vacances, n’effectuait pas de remplacement et que la charge de travail était celle de routine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Affaire_Naomi_Musenga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_Naomi_Musenga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Réactions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Société</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'existence du stéréotype appelé syndrome méditerranéen, consistant à moins bien considérer les plaintes émanant de personnes noires dans le milieu médical, est mise en lumière lors de cette affaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Affaire_Naomi_Musenga</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_Naomi_Musenga</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Suites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Samu reçoit de nombreux appels menaçants à la suite de la médiatisation de l'affaire. Des agents portent plainte[28]. L'opératrice se plaint d'un lynchage public sur 66 Minutes sur M6[29],[30]. Des mesures de sécurité sont mises en place. Des identités, coordonnées d'opérateurs sont divulguées sur les réseaux sociaux[31],[32] et font l'objet de harcèlement. L'une d'entre elles quitte la région et déscolarise ses enfants[33].
-Des appels à la mobilisation sont prévus le mercredi 16 mai 2018[34]. Une grande marche blanche à Strasbourg est organisée par le collectif baptisé "Justice pour Naomi Musenga[35]", une autre à Valence[36] et un rassemblement organisé par le militant anti-raciste Thierry-Paul Valette à Paris[37], place de l’Opéra, envoie une délégation de 22 personnes déposer 22 roses blanches devant le ministère de la Justice ainsi qu'une lettre à l'attention de la ministre Nicole Belloubet [28].
-La famille porte plainte[38] pour non-assistance à personne en danger et mise en danger de la vie d'autrui[39] et appelle au calme[40] même s'ils estiment avoir été « baladés » par les services de l'hôpital[39].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Samu reçoit de nombreux appels menaçants à la suite de la médiatisation de l'affaire. Des agents portent plainte. L'opératrice se plaint d'un lynchage public sur 66 Minutes sur M6,. Des mesures de sécurité sont mises en place. Des identités, coordonnées d'opérateurs sont divulguées sur les réseaux sociaux, et font l'objet de harcèlement. L'une d'entre elles quitte la région et déscolarise ses enfants.
+Des appels à la mobilisation sont prévus le mercredi 16 mai 2018. Une grande marche blanche à Strasbourg est organisée par le collectif baptisé "Justice pour Naomi Musenga", une autre à Valence et un rassemblement organisé par le militant anti-raciste Thierry-Paul Valette à Paris, place de l’Opéra, envoie une délégation de 22 personnes déposer 22 roses blanches devant le ministère de la Justice ainsi qu'une lettre à l'attention de la ministre Nicole Belloubet .
+La famille porte plainte pour non-assistance à personne en danger et mise en danger de la vie d'autrui et appelle au calme même s'ils estiment avoir été « baladés » par les services de l'hôpital.
 Le vendredi 12 janvier 2024, l’opératrice du Samu qui avait raillé au téléphone Naomi Musenga, retardant la prise en charge de cette jeune femme morte fin 2017 à l’hôpital de Strasbourg, a été mise en examen pour « non-assistance à personne en danger »
 </t>
         </is>
